--- a/final/GreetingApp2.0/GreetingsApplication.xlsx
+++ b/final/GreetingApp2.0/GreetingsApplication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15900" windowHeight="7920"/>
+    <workbookView windowWidth="15660" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wish you and your family 'A Happy, Prosperous and Peaceful Diwali and the year ahead'.
-Thanks and Regards.
 </t>
   </si>
   <si>
@@ -33,7 +32,9 @@
     <t>Signature</t>
   </si>
   <si>
-    <t>Gurudas</t>
+    <t>Gurudas &lt;br/&gt;
+Parinati Solutions | Work: +91-22-6725 6626 | Cell: +91 98332 55126 | Del. Centres: Bengaluru | Mumbai | Goa | www.parinati.in&lt;br/&gt;
+Application Development and Maintenance. Payments Practice. Mobility Solutions. Managed Captive Services. Assurance Services.</t>
   </si>
   <si>
     <t>Sr. No.</t>
@@ -77,12 +78,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,23 +114,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,30 +269,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,6 +305,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,12 +323,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,79 +359,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,143 +545,143 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,13 +1024,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.8333333333333" style="2"/>
     <col min="4" max="4" width="50" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.8333333333333" style="2"/>
